--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,96 +46,126 @@
     <t>die</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>shame</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -148,127 +178,133 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>and</t>
@@ -629,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -769,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -798,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,16 +855,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,16 +905,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.84</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,31 +1002,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7948717948717948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>0.9069767441860465</v>
@@ -1148,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7931034482758621</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8984375</v>
+        <v>0.89375</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7666666666666667</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,16 +1255,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8873239436619719</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6878306878306878</v>
+        <v>0.725</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6821705426356589</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8773584905660378</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6779661016949152</v>
+        <v>0.6875</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8723404255319149</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6174496644295302</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="D19">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.8620689655172413</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6153846153846154</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.8611111111111112</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6129032258064516</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K21">
         <v>0.8253968253968254</v>
@@ -1648,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5882352941176471</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.825</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,16 +1755,16 @@
         <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.8214285714285714</v>
+        <v>0.8125</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.575</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C24">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5135135135135135</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7948717948717948</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4727272727272727</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="L26">
         <v>29</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L26">
-        <v>27</v>
-      </c>
       <c r="M26">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4642857142857143</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7470588235294118</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L27">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4266666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7407407407407407</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1998,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K29">
         <v>0.7220338983050848</v>
@@ -2048,13 +2084,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2066,19 +2102,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.72</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,37 +2134,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3134920634920635</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>37</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D31">
-        <v>79</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>173</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K31">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2148,13 +2184,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.702928870292887</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2234,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2727272727272727</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.7021276595744681</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2284,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1742627345844504</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>308</v>
+        <v>57</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.6966292134831461</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L34">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="M34">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,256 +2326,496 @@
         <v>0</v>
       </c>
       <c r="Q34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.2375</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>61</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1447721179624665</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>319</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>272</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L37">
+        <v>41</v>
+      </c>
+      <c r="M37">
+        <v>41</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+      <c r="F38">
+        <v>0.95</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1140</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38">
+        <v>0.6292134831460674</v>
+      </c>
+      <c r="L38">
+        <v>56</v>
+      </c>
+      <c r="M38">
+        <v>56</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.0164463076426959</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>0.11</v>
+      </c>
+      <c r="F39">
+        <v>0.89</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3050</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.01474926253687316</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>0.15</v>
+      </c>
+      <c r="F40">
+        <v>0.85</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2338</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40">
+        <v>0.53125</v>
+      </c>
+      <c r="L40">
+        <v>34</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>0.24</v>
+      </c>
+      <c r="F41">
+        <v>0.76</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2118</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L41">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.006834170854271356</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>0.38</v>
+      </c>
+      <c r="F42">
+        <v>0.62</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4941</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.005245774237419856</v>
+      </c>
+      <c r="C43">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L35">
+      <c r="D43">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>0.4</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>5120</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.004412447747329308</v>
+      </c>
+      <c r="C44">
         <v>19</v>
       </c>
-      <c r="M35">
-        <v>19</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.6714285714285714</v>
-      </c>
-      <c r="L36">
-        <v>47</v>
-      </c>
-      <c r="M36">
-        <v>47</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L38">
-        <v>43</v>
-      </c>
-      <c r="M38">
-        <v>43</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39">
-        <v>0.66</v>
-      </c>
-      <c r="L39">
-        <v>33</v>
-      </c>
-      <c r="M39">
-        <v>33</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L40">
-        <v>28</v>
-      </c>
-      <c r="M40">
-        <v>28</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41">
-        <v>0.5476190476190477</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L42">
-        <v>27</v>
-      </c>
-      <c r="M42">
-        <v>27</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43">
-        <v>0.5068493150684932</v>
-      </c>
-      <c r="L43">
+      <c r="D44">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>0.54</v>
+      </c>
+      <c r="F44">
+        <v>0.46</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4287</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="L44">
         <v>37</v>
       </c>
-      <c r="M43">
+      <c r="M44">
         <v>37</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44">
-        <v>0.484375</v>
-      </c>
-      <c r="L44">
-        <v>31</v>
-      </c>
-      <c r="M44">
-        <v>31</v>
-      </c>
       <c r="N44">
         <v>1</v>
       </c>
@@ -2550,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.4743589743589743</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2576,59 +2852,163 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.1944444444444444</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.007868115399025852</v>
+        <v>0.03753127606338615</v>
       </c>
       <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47">
+        <v>0.98</v>
+      </c>
+      <c r="O47">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K48">
+        <v>0.008774678784080225</v>
+      </c>
+      <c r="L48">
+        <v>28</v>
+      </c>
+      <c r="M48">
+        <v>38</v>
+      </c>
+      <c r="N48">
+        <v>0.74</v>
+      </c>
+      <c r="O48">
+        <v>0.26</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49">
+        <v>0.007879924953095686</v>
+      </c>
+      <c r="L49">
         <v>21</v>
       </c>
-      <c r="M47">
-        <v>25</v>
-      </c>
-      <c r="N47">
-        <v>0.84</v>
-      </c>
-      <c r="O47">
-        <v>0.16</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>2648</v>
+      <c r="M49">
+        <v>29</v>
+      </c>
+      <c r="N49">
+        <v>0.72</v>
+      </c>
+      <c r="O49">
+        <v>0.28</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50">
+        <v>0.00510559294499884</v>
+      </c>
+      <c r="L50">
+        <v>22</v>
+      </c>
+      <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50">
+        <v>0.54</v>
+      </c>
+      <c r="O50">
+        <v>0.46</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>0.004232164449818622</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>55</v>
+      </c>
+      <c r="N51">
+        <v>0.38</v>
+      </c>
+      <c r="O51">
+        <v>0.62</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4941</v>
       </c>
     </row>
   </sheetData>
